--- a/jupiter-cloud/Data/tc_001.xlsx
+++ b/jupiter-cloud/Data/tc_001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\installed\EclispseWorkspaces\jupiter-cloud\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\installed\EclispseWorkspaces\a\jupiter-cloud-prabhath\jupiter-cloud\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D508B6-6501-4FE2-9131-017337B29DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22ABECD-11C8-4431-9702-CD0E05BD3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{002B31A8-901C-4AB6-8B7F-8F0812D7BFE4}"/>
   </bookViews>
@@ -36,13 +36,13 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Prabhath</t>
-  </si>
-  <si>
-    <t>prabath@gmail.com</t>
-  </si>
-  <si>
-    <t>TestMessage</t>
+    <t>Superb</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>lisa@test.com.au</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,13 +431,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
